--- a/텀프자료/텀프자료.xlsx
+++ b/텀프자료/텀프자료.xlsx
@@ -5,7 +5,7 @@
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\텀프자료\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\텀프\anime_recommendation\텀프자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
@@ -19,495 +19,468 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="163">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="154">
+  <x:si>
+    <x:t>사랑은 비가갠뒤처럼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고전,단편,액션,성장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고전,장편,액션,성장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고전,장편,사랑,럽코</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사카모토입니다만</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최신,장편,사랑,럽코</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고전,단편,사랑,럽코</x:t>
+  </x:si>
+  <x:si>
+    <x:t>액션,장편,작화,고전</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고전,장편,럽코,작화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>액션,장편,고전,성장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고전,장편,사랑,럽코,작화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고전,장편,액션,평범한주인공</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최신,장편,사랑,럽코,작화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>액션,최신,장편,먼치킨,작화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고전,장편,사랑,럽코X</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최신,단편,미스터리,잔인X</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고전,단편,미스테리,잔인x</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고전,장편,작화,액션,성장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장편, 고전, 먼치킨, 액션</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최신,장편,액션,먼치킨,작화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고전,장편,액션,먼치킨</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고전,장편,미스테리,잔인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최신,장편,액션,먼치킨</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최신,장편,액션,성장,작화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최신,단편,사랑,럽코,작화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고전,단편,이세계,액션</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스즈미야 하루히의 우울</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최신,단편,사랑,럽코O,작화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미스테리,잔인X,고전,장편</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이세계,액션,장편,고전</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고전,장편,액션,성장,작화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장편, 고전,먼치킨, 액션</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고전,장편,액션,먼치킨,작화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고전,장편,미스테리,잔인X</x:t>
+  </x:si>
+  <x:si>
+    <x:t>어둠의실력자가되고싶어서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최신,단편,사랑,럽코X,작화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고전,단편,뇌빼고,코미디</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최신,장편,뇌빼고,코미디</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고전,장편,뇌빼고,코미디</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최신,단편,액션,평범한주인공</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고전,단편,액션,먼치킨</x:t>
+  </x:si>
+  <x:si>
+    <x:t>뇌빼고,힐링,고전,장편,</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고전,단편,액션,먼치킨,작화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고전,단편,미스테리,잔인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최신,장편,뇌빼고,힐링감동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고전,단편,뇌빼고,힐링감동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고전,장편,뇌빼고,힐링감동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최신,단편,뇌빼고,힐링감동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고전,장편,미스테리,잔인x,작화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최신,장편,미스테리,잔인X,작화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고전,장편,미스테리,잔인,작화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고전,단편,액션,평범한주인공,작화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고전,단편,이세계,액션,먼치킨</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고전,장편,스토리,미스테리,잔인X</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최신,장편,액션,평범한주인공,작화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고전,장편,액션,이세계,먼치킨</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고전,장편,작화,미스테리,잔인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고전,장편,이세계,액션,평범한주인공</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고전, 장편, 액션, 평범한주인공</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고전,장편,액션,평범한주인공,작화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고전,단편,미스테리,잔인,작화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장편, 최신,작화, 사랑, 럽코X</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고전,장편,작화,액션,먼치킨,이세계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최신,장편,뇌빼고,코미디,작화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>뇌빼고, 감동, 고전, 장편,</x:t>
+  </x:si>
+  <x:si>
+    <x:t>뇌빼고, 코미디, 단편, 고전,</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최신,단편,뇌빼고,코미디,작화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>데스노트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>코드기어스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>클라나드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>도쿄구울</x:t>
+  </x:si>
+  <x:si>
+    <x:t>그렌라간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주술회전</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쓰르라미</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강철의연금술사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>임금님랭킹</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스파이패밀리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이세계삼촌</x:t>
+  </x:si>
+  <x:si>
+    <x:t>식극의소마</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제로의 사역마</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사에카노</x:t>
+  </x:si>
+  <x:si>
+    <x:t>그랑블루</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아카메가벤다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>닥터스톤</x:t>
+  </x:si>
+  <x:si>
+    <x:t>호리미야</x:t>
+  </x:si>
+  <x:si>
+    <x:t>코노스바</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5등분의신부</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최애의아이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>죠죠 2부</x:t>
+  </x:si>
+  <x:si>
+    <x:t>죠죠 3부</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사이코패스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>체인소맨</x:t>
+  </x:si>
+  <x:si>
+    <x:t>불꽃소방대</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학교생활</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한마바키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이세계콰르텟</x:t>
+  </x:si>
+  <x:si>
+    <x:t>렌탈여친</x:t>
+  </x:si>
+  <x:si>
+    <x:t>슬램덩크</x:t>
+  </x:si>
+  <x:si>
+    <x:t>청춘돼지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>봇치더록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비스크돌</x:t>
+  </x:si>
+  <x:si>
+    <x:t>노겜노라</x:t>
+  </x:si>
+  <x:si>
+    <x:t>늑대와향신료</x:t>
+  </x:si>
+  <x:si>
+    <x:t>메이드래곤</x:t>
+  </x:si>
+  <x:si>
+    <x:t>너에게닿기를</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유녀전기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>암살교실</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사쿠라장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모노가타리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>듀라라라</x:t>
+  </x:si>
+  <x:si>
+    <x:t>약사의혼잣말</x:t>
+  </x:si>
+  <x:si>
+    <x:t>오타코이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경계의저편</x:t>
+  </x:si>
+  <x:si>
+    <x:t>토라도라</x:t>
+  </x:si>
+  <x:si>
+    <x:t>노자키군</x:t>
+  </x:si>
+  <x:si>
+    <x:t>니세코이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미래일기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>바라카몬</x:t>
+  </x:si>
+  <x:si>
+    <x:t>나츠메우인장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아노하나</x:t>
+  </x:si>
+  <x:si>
+    <x:t>오버로드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>태그</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내청코</x:t>
+  </x:si>
+  <x:si>
+    <x:t>헬싱</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소아온</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마슐</x:t>
+  </x:si>
+  <x:si>
+    <x:t>프리렌</x:t>
+  </x:si>
+  <x:si>
+    <x:t>어나더</x:t>
+  </x:si>
+  <x:si>
+    <x:t>단간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>귀칼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기생수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>나히아</x:t>
+  </x:si>
+  <x:si>
+    <x:t>칠대죄</x:t>
+  </x:si>
+  <x:si>
+    <x:t>킬라킬</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4구라</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유루캠</x:t>
+  </x:si>
   <x:si>
     <x:t>페이트</x:t>
   </x:si>
   <x:si>
-    <x:t>소아온</x:t>
-  </x:si>
-  <x:si>
-    <x:t>도쿄구울</x:t>
-  </x:si>
-  <x:si>
-    <x:t>최신,단편,사랑,럽코O,작화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>프리렌</x:t>
-  </x:si>
-  <x:si>
     <x:t>던전밥</x:t>
   </x:si>
   <x:si>
-    <x:t>헬싱</x:t>
+    <x:t>나없거</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>원펀맨</x:t>
+  </x:si>
+  <x:si>
+    <x:t>메인어</x:t>
   </x:si>
   <x:si>
     <x:t>리제로</x:t>
   </x:si>
   <x:si>
-    <x:t>시달소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>단간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마슐</x:t>
-  </x:si>
-  <x:si>
-    <x:t>어나더</x:t>
-  </x:si>
-  <x:si>
-    <x:t>귀칼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>나히아</x:t>
-  </x:si>
-  <x:si>
-    <x:t>태그</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>너췌먹</x:t>
+    <x:t>약네버</x:t>
   </x:si>
   <x:si>
     <x:t>진격거</x:t>
   </x:si>
   <x:si>
-    <x:t>이세계,액션,장편,고전</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장편, 고전, 먼치킨, 액션</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미스테리,잔인X,고전,장편</x:t>
-  </x:si>
-  <x:si>
-    <x:t>최신,장편,액션,먼치킨</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장편, 고전,먼치킨, 액션</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고전,장편,미스테리,잔인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>최신,장편,액션,성장,작화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고전,단편,사랑,럽코X</x:t>
-  </x:si>
-  <x:si>
-    <x:t>최신,장편,액션,먼치킨,작화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고전,장편,사랑,럽코,작화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고전,단편,이세계,액션</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고전,장편,액션,먼치킨</x:t>
-  </x:si>
-  <x:si>
-    <x:t>최신,단편,사랑,럽코,작화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>어둠의실력자가되고싶어서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스즈미야 하루히의 우울</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고전,장편,액션,평범한주인공</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고전,장편,액션,먼치킨,작화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고전,장편,액션,성장,작화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고전,장편,미스테리,잔인X</x:t>
-  </x:si>
-  <x:si>
-    <x:t>최신,장편,사랑,럽코,작화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>액션,최신,장편,먼치킨,작화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>최신,단편,사랑,럽코X,작화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고전,단편,사랑,럽코X,작화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고전,장편,사랑,럽코X</x:t>
-  </x:si>
-  <x:si>
-    <x:t>최신,단편,미스터리,잔인X</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고전,단편,미스테리,잔인x</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고전,장편,작화,액션,성장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>최신,단편,사랑,럽코X</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고전,단편,미스테리,잔인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>최신,단편,액션,평범한주인공</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고전,단편,액션,먼치킨,작화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고전,단편,액션,먼치킨</x:t>
-  </x:si>
-  <x:si>
-    <x:t>최신,장편,사랑,럽코</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고전,단편,액션,성장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고전,장편,액션,성장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고전,장편,사랑,럽코</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사카모토입니다만</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고전,단편,사랑,럽코</x:t>
-  </x:si>
-  <x:si>
-    <x:t>액션,장편,작화,고전</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고전,장편,럽코,작화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>액션,장편,고전,성장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고전,장편,액션,평범한주인공,작화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고전,장편,미스테리,잔인,작화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장편, 최신,작화, 사랑, 럽코X</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고전,장편,액션,이세계,먼치킨</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고전,단편,미스테리,잔인,작화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고전,장편,이세계,액션,평범한주인공</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고전,장편,작화,액션,먼치킨,이세계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>최신,장편,미스테리,잔인X,작화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고전,장편,작화,미스테리,잔인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고전,장편,미스테리,잔인x,작화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고전,단편,이세계,액션,먼치킨</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고전,단편,액션,평범한주인공,작화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>최신,장편,액션,평범한주인공,작화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고전, 장편, 액션, 평범한주인공</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고전,장편,스토리,미스테리,잔인X</x:t>
-  </x:si>
-  <x:si>
-    <x:t>데스노트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>코드기어스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>클라나드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>그렌라간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주술회전</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사에카노</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5등분의신부</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아카메가벤다</x:t>
-  </x:si>
-  <x:si>
-    <x:t>최애의아이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>닥터스톤</x:t>
-  </x:si>
-  <x:si>
-    <x:t>체인소맨</x:t>
-  </x:si>
-  <x:si>
-    <x:t>호리미야</x:t>
-  </x:si>
-  <x:si>
-    <x:t>슬램덩크</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비스크돌</x:t>
-  </x:si>
-  <x:si>
-    <x:t>불꽃소방대</x:t>
-  </x:si>
-  <x:si>
-    <x:t>그랑블루</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스파이패밀리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>청춘돼지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>임금님랭킹</x:t>
-  </x:si>
-  <x:si>
-    <x:t>코노스바</x:t>
-  </x:si>
-  <x:si>
-    <x:t>학교생활</x:t>
-  </x:si>
-  <x:si>
-    <x:t>봇치더록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>쓰르라미</x:t>
-  </x:si>
-  <x:si>
-    <x:t>느그이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한마바키</x:t>
-  </x:si>
-  <x:si>
-    <x:t>죠죠 2부</x:t>
-  </x:si>
-  <x:si>
-    <x:t>날씨의아이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강철의연금술사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이세계콰르텟</x:t>
-  </x:si>
-  <x:si>
-    <x:t>죠죠 3부</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이세계삼촌</x:t>
-  </x:si>
-  <x:si>
-    <x:t>언어의정원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>식극의소마</x:t>
-  </x:si>
-  <x:si>
-    <x:t>목소리의형태</x:t>
-  </x:si>
-  <x:si>
-    <x:t>렌탈여친</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제로의 사역마</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사이코패스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>너에게닿기를</x:t>
-  </x:si>
-  <x:si>
-    <x:t>노겜노라</x:t>
-  </x:si>
-  <x:si>
-    <x:t>듀라라라</x:t>
-  </x:si>
-  <x:si>
-    <x:t>노자키군</x:t>
-  </x:si>
-  <x:si>
-    <x:t>오타코이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>바라카몬</x:t>
-  </x:si>
-  <x:si>
-    <x:t>늑대와향신료</x:t>
-  </x:si>
-  <x:si>
-    <x:t>경계의저편</x:t>
-  </x:si>
-  <x:si>
-    <x:t>오버로드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>메이드래곤</x:t>
-  </x:si>
-  <x:si>
-    <x:t>니세코이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유녀전기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미래일기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모노가타리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>암살교실</x:t>
-  </x:si>
-  <x:si>
-    <x:t>토라도라</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아노하나</x:t>
-  </x:si>
-  <x:si>
-    <x:t>나츠메우인장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사쿠라장</x:t>
-  </x:si>
-  <x:si>
     <x:t>하이큐</x:t>
   </x:si>
   <x:si>
-    <x:t>기생수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>킬라킬</x:t>
-  </x:si>
-  <x:si>
-    <x:t>칠대죄</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4구라</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내청코</x:t>
-  </x:si>
-  <x:si>
-    <x:t>나없거</x:t>
-  </x:si>
-  <x:si>
-    <x:t>원펀맨</x:t>
-  </x:si>
-  <x:si>
-    <x:t>메인어</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유루캠</x:t>
-  </x:si>
-  <x:si>
-    <x:t>약네버</x:t>
+    <x:t>헌헌</x:t>
+  </x:si>
+  <x:si>
+    <x:t>빙과</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일상</x:t>
+  </x:si>
+  <x:si>
+    <x:t>어과초</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마마마</x:t>
+  </x:si>
+  <x:si>
+    <x:t>케이온</x:t>
   </x:si>
   <x:si>
     <x:t>카구야</x:t>
   </x:si>
   <x:si>
-    <x:t>어과초</x:t>
-  </x:si>
-  <x:si>
-    <x:t>케이온</x:t>
-  </x:si>
-  <x:si>
-    <x:t>헌헌</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마마마</x:t>
-  </x:si>
-  <x:si>
-    <x:t>빙과</x:t>
-  </x:si>
-  <x:si>
     <x:t>슈타게</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일상</x:t>
-  </x:si>
-  <x:si>
-    <x:t>약사의혼잣말</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사랑은 비가갠뒤처럼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>뇌빼고, 코미디, 단편, 고전,</x:t>
-  </x:si>
-  <x:si>
-    <x:t>최신,장편,뇌빼고,코미디,작화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>최신,단편,뇌빼고,코미디,작화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>뇌빼고, 감동, 고전, 장편,</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고전,단편,뇌빼고,코미디</x:t>
-  </x:si>
-  <x:si>
-    <x:t>최신,장편,뇌빼고,힐링감동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고전,장편,뇌빼고,힐링감동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고전,단편,뇌빼고,힐링감동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고전,장편,뇌빼고,코미디</x:t>
-  </x:si>
-  <x:si>
-    <x:t>최신,단편,뇌빼고,힐링감동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>최신,장편,뇌빼고,코미디</x:t>
-  </x:si>
-  <x:si>
-    <x:t>뇌빼고,힐링,고전,장편,</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -615,7 +588,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -698,7 +670,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -733,7 +704,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -778,7 +748,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -822,7 +791,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -907,7 +875,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -928,7 +895,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -959,7 +925,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1327,8 +1292,8 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A1:C97"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="C58" activeCellId="0" sqref="C58:C58"/>
+    <x:sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="E75" activeCellId="0" sqref="E75:E75"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.39999999999999857891"/>
@@ -1340,10 +1305,10 @@
   <x:sheetData>
     <x:row r="1" spans="2:3">
       <x:c r="B1" s="2" t="s">
-        <x:v>15</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="C1" s="2" t="s">
-        <x:v>14</x:v>
+        <x:v>121</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
@@ -1351,10 +1316,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
-        <x:v>56</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
@@ -1362,10 +1327,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B3" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C3" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
@@ -1373,10 +1338,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B4" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C4" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
@@ -1384,10 +1349,10 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B5" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C5" s="2" t="s">
-        <x:v>151</x:v>
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
@@ -1395,10 +1360,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B6" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
-        <x:v>22</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3">
@@ -1406,10 +1371,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B7" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C7" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3">
@@ -1417,10 +1382,10 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B8" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="C8" s="2" t="s">
-        <x:v>154</x:v>
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -1428,10 +1393,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B9" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C9" s="2" t="s">
-        <x:v>58</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
@@ -1439,10 +1404,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B10" s="1" t="s">
-        <x:v>128</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="C10" s="2" t="s">
-        <x:v>162</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:3">
@@ -1450,7 +1415,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B11" s="1" t="s">
-        <x:v>117</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="C11" s="2" t="s">
         <x:v>61</x:v>
@@ -1461,10 +1426,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B12" s="1" t="s">
-        <x:v>142</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="C12" s="2" t="s">
-        <x:v>72</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:3">
@@ -1472,10 +1437,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B13" s="1" t="s">
-        <x:v>126</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:3">
@@ -1483,10 +1448,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="B14" s="1" t="s">
-        <x:v>111</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="C14" s="2" t="s">
-        <x:v>41</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:3">
@@ -1494,10 +1459,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="B15" s="1" t="s">
-        <x:v>124</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C15" s="2" t="s">
-        <x:v>73</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:3">
@@ -1505,10 +1470,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B16" s="1" t="s">
-        <x:v>143</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="C16" s="2" t="s">
-        <x:v>157</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:3">
@@ -1516,10 +1481,10 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="B17" s="1" t="s">
-        <x:v>101</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C17" s="2" t="s">
-        <x:v>52</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:3">
@@ -1527,10 +1492,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="B18" s="1" t="s">
-        <x:v>113</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="C18" s="2" t="s">
-        <x:v>33</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:3">
@@ -1538,10 +1503,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="B19" s="1" t="s">
-        <x:v>149</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="C19" s="2" t="s">
-        <x:v>66</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:3">
@@ -1549,10 +1514,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="B20" s="1" t="s">
-        <x:v>147</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="C20" s="2" t="s">
-        <x:v>36</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:3">
@@ -1563,7 +1528,7 @@
         <x:v>148</x:v>
       </x:c>
       <x:c r="C21" s="2" t="s">
-        <x:v>159</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:3">
@@ -1571,10 +1536,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="B22" s="1" t="s">
-        <x:v>144</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="C22" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:3">
@@ -1582,10 +1547,10 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="B23" s="1" t="s">
-        <x:v>123</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="C23" s="2" t="s">
-        <x:v>67</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:3">
@@ -1593,10 +1558,10 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="B24" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="C24" s="2" t="s">
-        <x:v>158</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:3">
@@ -1604,10 +1569,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="B25" s="1" t="s">
-        <x:v>145</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="C25" s="2" t="s">
-        <x:v>43</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:3">
@@ -1615,10 +1580,10 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="B26" s="1" t="s">
-        <x:v>99</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="C26" s="2" t="s">
-        <x:v>51</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:3">
@@ -1626,10 +1591,10 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="B27" s="1" t="s">
-        <x:v>103</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="C27" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:3">
@@ -1637,10 +1602,10 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="B28" s="1" t="s">
-        <x:v>146</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="C28" s="2" t="s">
-        <x:v>68</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:3">
@@ -1648,10 +1613,10 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="B29" s="1" t="s">
-        <x:v>129</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="C29" s="2" t="s">
-        <x:v>57</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:3">
@@ -1659,10 +1624,10 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="B30" s="1" t="s">
-        <x:v>110</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="C30" s="2" t="s">
-        <x:v>60</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:3">
@@ -1670,10 +1635,10 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="B31" s="1" t="s">
-        <x:v>1</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="C31" s="2" t="s">
-        <x:v>65</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:3">
@@ -1681,10 +1646,10 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="B32" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="C32" s="2" t="s">
-        <x:v>70</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:3">
@@ -1692,10 +1657,10 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="B33" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="C33" s="2" t="s">
-        <x:v>33</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:3">
@@ -1703,10 +1668,10 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="B34" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="C34" s="2" t="s">
-        <x:v>38</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:3">
@@ -1714,10 +1679,10 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="B35" s="1" t="s">
-        <x:v>2</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C35" s="2" t="s">
-        <x:v>49</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:3">
@@ -1728,7 +1693,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="C36" s="2" t="s">
-        <x:v>55</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:3">
@@ -1736,10 +1701,10 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="B37" s="1" t="s">
-        <x:v>121</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="C37" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:3">
@@ -1747,10 +1712,10 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="B38" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="C38" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:3">
@@ -1758,10 +1723,10 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="B39" s="1" t="s">
-        <x:v>130</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="C39" s="2" t="s">
-        <x:v>35</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:3">
@@ -1769,10 +1734,10 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="B40" s="1" t="s">
-        <x:v>86</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C40" s="2" t="s">
-        <x:v>52</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:3">
@@ -1780,10 +1745,10 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="B41" s="1" t="s">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="C41" s="2" t="s">
-        <x:v>158</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:3">
@@ -1791,10 +1756,10 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="B42" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="C42" s="2" t="s">
-        <x:v>23</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:3">
@@ -1805,7 +1770,7 @@
         <x:v>134</x:v>
       </x:c>
       <x:c r="C43" s="2" t="s">
-        <x:v>157</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:3">
@@ -1813,10 +1778,10 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="B44" s="1" t="s">
-        <x:v>135</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="C44" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:3">
@@ -1824,10 +1789,10 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="B45" s="1" t="s">
-        <x:v>119</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="C45" s="2" t="s">
-        <x:v>62</x:v>
+        <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:3">
@@ -1835,10 +1800,10 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="B46" s="1" t="s">
-        <x:v>112</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="C46" s="2" t="s">
-        <x:v>28</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:3">
@@ -1846,10 +1811,10 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="B47" s="1" t="s">
-        <x:v>125</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="C47" s="2" t="s">
-        <x:v>157</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:3">
@@ -1857,10 +1822,10 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="B48" s="1" t="s">
-        <x:v>137</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="C48" s="2" t="s">
-        <x:v>48</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:3">
@@ -1868,10 +1833,10 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="B49" s="1" t="s">
-        <x:v>136</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="C49" s="2" t="s">
-        <x:v>43</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:3">
@@ -1879,10 +1844,10 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="B50" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="C50" s="2" t="s">
-        <x:v>52</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:3">
@@ -1890,10 +1855,10 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="B51" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="C51" s="2" t="s">
-        <x:v>64</x:v>
+        <x:v>57</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:3">
@@ -1901,10 +1866,10 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="B52" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="C52" s="2" t="s">
-        <x:v>35</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:3">
@@ -1912,10 +1877,10 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="B53" s="1" t="s">
-        <x:v>138</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="C53" s="2" t="s">
-        <x:v>23</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:3">
@@ -1923,10 +1888,10 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="B54" s="1" t="s">
-        <x:v>120</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="C54" s="2" t="s">
-        <x:v>157</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:3">
@@ -1934,10 +1899,10 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="B55" s="1" t="s">
-        <x:v>122</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="C55" s="2" t="s">
-        <x:v>69</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:3">
@@ -1945,10 +1910,10 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="B56" s="1" t="s">
-        <x:v>139</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C56" s="2" t="s">
-        <x:v>156</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:3">
@@ -1956,10 +1921,10 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="B57" s="1" t="s">
-        <x:v>115</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="C57" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:3">
@@ -1967,10 +1932,10 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="B58" s="1" t="s">
-        <x:v>150</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C58" s="2" t="s">
-        <x:v>39</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:3">
@@ -1978,10 +1943,10 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="B59" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="C59" s="2" t="s">
-        <x:v>42</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:3">
@@ -1989,10 +1954,10 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="B60" s="1" t="s">
-        <x:v>141</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="C60" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:3">
@@ -2003,7 +1968,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="C61" s="2" t="s">
-        <x:v>152</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:3">
@@ -2011,10 +1976,10 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="B62" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="C62" s="2" t="s">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:3">
@@ -2022,10 +1987,10 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="B63" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C63" s="2" t="s">
-        <x:v>155</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:3">
@@ -2033,10 +1998,10 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="B64" s="1" t="s">
-        <x:v>94</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="C64" s="2" t="s">
-        <x:v>46</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:3">
@@ -2044,10 +2009,10 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="B65" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="C65" s="2" t="s">
-        <x:v>26</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:3">
@@ -2055,10 +2020,10 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="B66" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="C66" s="2" t="s">
-        <x:v>50</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:3">
@@ -2066,10 +2031,10 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="B67" s="1" t="s">
-        <x:v>92</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C67" s="2" t="s">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:3">
@@ -2080,7 +2045,7 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="C68" s="2" t="s">
-        <x:v>71</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:3">
@@ -2088,7 +2053,7 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="B69" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="C69" s="2" t="s">
         <x:v>59</x:v>
@@ -2099,10 +2064,10 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="B70" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="C70" s="2" t="s">
-        <x:v>66</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:3">
@@ -2110,10 +2075,10 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="B71" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C71" s="2" t="s">
-        <x:v>63</x:v>
+        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:3">
@@ -2121,10 +2086,10 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="B72" s="1" t="s">
-        <x:v>90</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="C72" s="2" t="s">
-        <x:v>152</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:3">
@@ -2132,10 +2097,10 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="B73" s="1" t="s">
-        <x:v>95</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="C73" s="2" t="s">
-        <x:v>160</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:3">
@@ -2143,10 +2108,10 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="B74" s="1" t="s">
-        <x:v>84</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="C74" s="2" t="s">
-        <x:v>47</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:3">
@@ -2154,10 +2119,10 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="B75" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="C75" s="2" t="s">
-        <x:v>50</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:3">
@@ -2165,10 +2130,10 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="B76" s="1" t="s">
-        <x:v>89</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="C76" s="2" t="s">
-        <x:v>153</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:3">
@@ -2176,10 +2141,10 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="B77" s="1" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="C77" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:3">
@@ -2187,10 +2152,10 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="B78" s="1" t="s">
-        <x:v>87</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="C78" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="79" spans="1:3">
@@ -2198,10 +2163,10 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="B79" s="1" t="s">
-        <x:v>104</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C79" s="2" t="s">
-        <x:v>153</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:3">
@@ -2209,10 +2174,10 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="B80" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="C80" s="2" t="s">
-        <x:v>23</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:3">
@@ -2220,10 +2185,10 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="B81" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="C81" s="2" t="s">
-        <x:v>46</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="82" spans="1:3">
@@ -2231,10 +2196,10 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="B82" s="1" t="s">
-        <x:v>4</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="C82" s="2" t="s">
-        <x:v>26</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="83" spans="1:3">
@@ -2242,10 +2207,10 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="B83" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="C83" s="2" t="s">
-        <x:v>156</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="84" spans="1:3">
@@ -2253,10 +2218,10 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="B84" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="C84" s="2" t="s">
-        <x:v>34</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="85" spans="1:3">
@@ -2264,10 +2229,10 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="B85" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="C85" s="2" t="s">
-        <x:v>26</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="86" spans="1:3">
@@ -2275,10 +2240,10 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="B86" s="1" t="s">
-        <x:v>108</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="C86" s="2" t="s">
-        <x:v>37</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="87" spans="1:3">
@@ -2286,10 +2251,10 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="B87" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C87" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="88" spans="1:3">
@@ -2297,10 +2262,10 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="B88" s="1" t="s">
-        <x:v>98</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="C88" s="2" t="s">
-        <x:v>159</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="1:3">
@@ -2308,10 +2273,10 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="B89" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="C89" s="2" t="s">
-        <x:v>50</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="90" spans="1:3">
@@ -2319,10 +2284,10 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="B90" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="C90" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="91" spans="1:3">
@@ -2330,80 +2295,44 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="B91" s="1" t="s">
-        <x:v>102</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="C91" s="2" t="s">
-        <x:v>161</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="92" spans="1:3">
-      <x:c r="A92" s="1">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="B92" s="1" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="C92" s="2" t="s">
-        <x:v>40</x:v>
-      </x:c>
+      <x:c r="A92" s="1"/>
+      <x:c r="B92" s="1"/>
+      <x:c r="C92" s="2"/>
     </x:row>
     <x:row r="93" spans="1:3">
-      <x:c r="A93" s="1">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="B93" s="1" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="C93" s="2" t="s">
-        <x:v>25</x:v>
-      </x:c>
+      <x:c r="A93" s="1"/>
+      <x:c r="B93" s="1"/>
+      <x:c r="C93" s="2"/>
     </x:row>
     <x:row r="94" spans="1:3">
-      <x:c r="A94" s="1">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="B94" s="1" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="C94" s="2" t="s">
-        <x:v>45</x:v>
-      </x:c>
+      <x:c r="A94" s="1"/>
+      <x:c r="B94" s="1"/>
+      <x:c r="C94" s="2"/>
     </x:row>
     <x:row r="95" spans="1:3">
-      <x:c r="A95" s="1">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="B95" s="1" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="C95" s="2" t="s">
-        <x:v>158</x:v>
-      </x:c>
+      <x:c r="A95" s="1"/>
+      <x:c r="B95" s="1"/>
+      <x:c r="C95" s="2"/>
     </x:row>
     <x:row r="96" spans="1:3">
-      <x:c r="A96" s="1">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="B96" s="1" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="C96" s="2" t="s">
-        <x:v>25</x:v>
-      </x:c>
+      <x:c r="A96" s="1"/>
+      <x:c r="B96" s="1"/>
+      <x:c r="C96" s="2"/>
     </x:row>
     <x:row r="97" spans="1:3">
-      <x:c r="A97" s="1">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="B97" s="1" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="C97" s="2" t="s">
-        <x:v>45</x:v>
-      </x:c>
+      <x:c r="A97" s="1"/>
+      <x:c r="B97" s="1"/>
+      <x:c r="C97" s="2"/>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51180553436279296875" footer="0.51180553436279296875"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51166665554046630859" footer="0.51166665554046630859"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>